--- a/Luban/Datas/UISystem.xlsx
+++ b/Luban/Datas/UISystem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\YuFramework\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\200 - 学习\202 - 项目\unity\2.5D\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71982472-043D-4108-971B-1D569BF9D02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A7403-6296-4B73-9FBC-63B209E76B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <sheet name="Prefab" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -145,6 +134,46 @@
   </si>
   <si>
     <t>GM指令界面</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/BattleView.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalLayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleView</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/PauseView.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PauseView</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/UI/MapSelectView.prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡选择界面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停界面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗UI界面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSelectView</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -576,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -644,6 +673,63 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
